--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pettr\Desktop\ProjetoLanchonete\SistemaDeLanchonete\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Username</t>
   </si>
@@ -89,12 +89,34 @@
   </si>
   <si>
     <t>Pedido</t>
+  </si>
+  <si>
+    <t>35999090909</t>
+  </si>
+  <si>
+    <t>090909898989</t>
+  </si>
+  <si>
+    <t>Kibe (R$ 4.0), Suco (R$ 4.0)</t>
+  </si>
+  <si>
+    <t>pett</t>
+  </si>
+  <si>
+    <t>Rua Benedito Fraga</t>
+  </si>
+  <si>
+    <t>12312312312</t>
+  </si>
+  <si>
+    <t>Kibe (R$ 4.0), Coxinha (R$ 5.0), Coca cola (R$ 3.0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -471,14 +493,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.0"/>
+    <col min="2" max="2" customWidth="true" width="13.5703125"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875"/>
+    <col min="4" max="4" customWidth="true" width="12.28515625"/>
+    <col min="5" max="5" customWidth="true" width="20.42578125"/>
+    <col min="6" max="6" customWidth="true" width="16.0"/>
+    <col min="7" max="7" customWidth="true" width="15.42578125"/>
+    <col min="8" max="8" customWidth="true" width="48.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -508,22 +530,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="G2" s="1">
@@ -531,55 +553,107 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>13.5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
